--- a/outputs/sector_prices.xlsx
+++ b/outputs/sector_prices.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1115"/>
+  <dimension ref="A1:L1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40453,6 +40453,44 @@
         <v>0.8936124687289438</v>
       </c>
     </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>0.819008722520169</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>1.338572788126229</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>1.163611477875931</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.906609602903114</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>1.381839554708652</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>0.8759975722224603</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0.8044346544678597</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>-3.949492002279889</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>1.160398702978713</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>1.593896025984451</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0.8583117504382969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs/sector_prices.xlsx
+++ b/outputs/sector_prices.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1155"/>
+  <dimension ref="A1:L1157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41969,6 +41969,82 @@
         <v>0.7924481257897241</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>0.8918941815006206</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>1.443977261221712</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.677769171597651</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1.517647094121939</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>1.358649785501626</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>1.240761521821878</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.6364483851363218</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1.024970891195712</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>1.183608570476979</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>1.778283687727893</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0.7866634896686634</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>43949</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>0.9061681597604579</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.441066925391288</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.6869654114547914</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1.5250237097528</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>1.347553397094561</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>1.219807790457746</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.6513916301596057</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.026246352961153</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>1.183608570476979</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>1.745848449334334</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0.7999655311222157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
